--- a/1.5代验证.xlsx
+++ b/1.5代验证.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563F8775-6196-4D23-A2A2-89530A815E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929A722E-0C80-4B4C-A365-F37F408677FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4号" sheetId="1" r:id="rId1"/>
-    <sheet name="5号" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="5号" sheetId="3" r:id="rId2"/>
+    <sheet name="2号" sheetId="4" r:id="rId3"/>
+    <sheet name="3号" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,9 +26,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>实际值</t>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矫正差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT背面据前端距离42.3mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -37,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000000000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +80,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -91,7 +120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -102,6 +131,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -242,524 +280,97 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'4号'!$A$2:$A$18</c:f>
+              <c:f>'5号'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>13294</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14054</c:v>
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15579</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16364</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17124</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17887</c:v>
+                  <c:v>1099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18666</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19413</c:v>
+                  <c:v>1398</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20189</c:v>
+                  <c:v>1551</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20937</c:v>
+                  <c:v>1701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21700</c:v>
+                  <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22482</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23240</c:v>
+                  <c:v>2150</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23998</c:v>
+                  <c:v>2299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24751</c:v>
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3049</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4号'!$B$2:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>643</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>793</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>943</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1243</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1393</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1543</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1693</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1843</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2143</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2293</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2443</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2593</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3133-4381-853F-257531C0DEBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1147661631"/>
-        <c:axId val="1240393839"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1147661631"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1240393839"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1240393839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1147661631"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="#,##0.0000000000_);[Red]\(#,##0.0000000000\)" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>496</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>795</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1248</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1398</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1551</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1701</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2299</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2450</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2748</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2898</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3049</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3199</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3352</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3501</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3651</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3801</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3950</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$B$2:$B$28</c:f>
+              <c:f>'5号'!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1041,6 +652,475 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.0000000000_);[Red]\(#,##0.0000000000\)" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2号'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3043</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3193</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3493</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2号'!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>192.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>342.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>492.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>642.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>792.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>942.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1092.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1242.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1392.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1542.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1692.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1842.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2142.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2292.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2442.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2592.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2742.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2892.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3042.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3192.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3342.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3492.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3642.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3792.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3942.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DD5-4F7E-A2AA-CEC33335CEB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="355033248"/>
+        <c:axId val="233869584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="355033248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233869584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="233869584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355033248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2157,23 +2237,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A856B16-E17F-4B2C-B925-49AAF95A4B80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF6D016-B8EB-4EF9-AE2F-EB0A79B5ED70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,22 +2279,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF6D016-B8EB-4EF9-AE2F-EB0A79B5ED70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6869571-4A43-4283-BAFC-A276177B5438}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,771 +2636,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C8:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13294</v>
+        <v>193</v>
       </c>
       <c r="B2">
         <v>193</v>
       </c>
       <c r="C2">
-        <v>193</v>
-      </c>
-      <c r="D2">
-        <f>C2-B2</f>
+        <f>B2-A2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14054</v>
+        <v>343</v>
       </c>
       <c r="B3">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C3">
-        <v>342</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D20" si="0">C3-B3</f>
+        <f t="shared" ref="C3:C20" si="0">B3-A3</f>
         <v>-1</v>
       </c>
-      <c r="F3">
-        <f>A3-A2</f>
-        <v>760</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>493</v>
+      </c>
       <c r="B4">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C4">
-        <v>495</v>
-      </c>
-      <c r="D4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>15579</v>
+        <v>643</v>
       </c>
       <c r="B5">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C5">
-        <v>641</v>
-      </c>
-      <c r="D5">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>16364</v>
+        <v>793</v>
       </c>
       <c r="B6">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C6">
-        <v>795</v>
-      </c>
-      <c r="D6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17124</v>
+        <v>943</v>
       </c>
       <c r="B7">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C7">
-        <v>944</v>
-      </c>
-      <c r="D7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F20" si="1">A7-A6</f>
-        <v>760</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>17887</v>
-      </c>
-      <c r="B8" s="1">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1093</v>
       </c>
+      <c r="B8">
+        <v>1096</v>
+      </c>
       <c r="C8">
-        <v>1096</v>
-      </c>
-      <c r="D8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18666</v>
+        <v>1243</v>
       </c>
       <c r="B9">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C9">
-        <v>1246</v>
-      </c>
-      <c r="D9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19413</v>
+        <v>1393</v>
       </c>
       <c r="B10">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="C10">
-        <v>1396</v>
-      </c>
-      <c r="D10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20189</v>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1543</v>
       </c>
       <c r="B11">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="C11">
-        <v>1545</v>
-      </c>
-      <c r="D11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>20937</v>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1693</v>
       </c>
       <c r="B12">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="C12">
-        <v>1695</v>
-      </c>
-      <c r="D12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>21700</v>
-      </c>
-      <c r="B13">
         <v>1843</v>
       </c>
-      <c r="C13" s="2">
+      <c r="B13" s="2">
         <v>1845</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>763</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>22482</v>
+        <v>1993</v>
       </c>
       <c r="B14">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="C14">
-        <v>1995</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <f>AVERAGE(D8:D14)</f>
+        <f>AVERAGE(C8:C14)</f>
         <v>2.4285714285714284</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>23240</v>
+        <v>2143</v>
       </c>
       <c r="B15">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="C15">
-        <v>2144</v>
-      </c>
-      <c r="D15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>758</v>
-      </c>
-      <c r="G15">
-        <f>A6-A5</f>
-        <v>785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>23998</v>
+        <v>2293</v>
       </c>
       <c r="B16">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="C16">
-        <v>2294</v>
-      </c>
-      <c r="D16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>758</v>
-      </c>
-      <c r="H16">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>24751</v>
-      </c>
-      <c r="B17">
         <v>2443</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>-2443</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>753</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2593</v>
+      </c>
       <c r="B18">
         <v>2593</v>
       </c>
       <c r="C18">
-        <v>2593</v>
-      </c>
-      <c r="D18">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>-24751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>26298</v>
-      </c>
-      <c r="B19">
-        <v>2743</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>-2743</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>26298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>2893</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>-2893</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>-26298</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>150+A1</f>
-        <v>192.3</v>
-      </c>
-      <c r="B2">
-        <v>193</v>
-      </c>
-      <c r="C2">
-        <f>1.00135376756066*B2 + 3.48400547345036-A2</f>
-        <v>4.4452826126577634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+150</f>
-        <v>342.3</v>
-      </c>
-      <c r="B3">
-        <v>346</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C31" si="0">1.00135376756066*B3 + 3.48400547345036-A3</f>
-        <v>7.6524090494386883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A31" si="1">A3+150</f>
-        <v>492.3</v>
-      </c>
-      <c r="B4">
-        <v>496</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>7.8554741835377513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="1"/>
-        <v>642.29999999999995</v>
-      </c>
-      <c r="B5">
-        <v>646</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>8.0585393176368143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>792.3</v>
-      </c>
-      <c r="B6">
-        <v>795</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>7.260250684175162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>942.3</v>
-      </c>
-      <c r="B7">
-        <v>945</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>7.4633158182741681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>1092.3</v>
-      </c>
-      <c r="B8">
-        <v>1099</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>11.671796022616036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>1242.3</v>
-      </c>
-      <c r="B9">
-        <v>1248</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>10.873507389154383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>1392.3</v>
-      </c>
-      <c r="B10">
-        <v>1398</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>11.07657252325339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>1542.3</v>
-      </c>
-      <c r="B11">
-        <v>1551</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>14.283698960034371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>1692.3</v>
-      </c>
-      <c r="B12">
-        <v>1701</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>14.486764094133378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>1842.3</v>
-      </c>
-      <c r="B13">
-        <v>1850</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>13.688475460671725</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="1"/>
-        <v>1992.3</v>
-      </c>
-      <c r="B14">
-        <v>2000</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>13.891540594770731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>2142.3000000000002</v>
-      </c>
-      <c r="B15">
-        <v>2150</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>14.094605728869283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="1"/>
-        <v>2292.3000000000002</v>
-      </c>
-      <c r="B16">
-        <v>2299</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>13.29631709540763</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>2442.3000000000002</v>
-      </c>
-      <c r="B17">
-        <v>2450</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>14.500735997067295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="1"/>
-        <v>2592.3000000000002</v>
-      </c>
-      <c r="B18">
-        <v>2599</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>13.702447363605643</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
-        <v>2742.3</v>
-      </c>
-      <c r="B19">
-        <v>2748</v>
+        <v>2743</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>12.90415873014399</v>
+        <v>-2743</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
-        <v>2892.3</v>
-      </c>
-      <c r="B20">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>13.107223864243224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="1"/>
-        <v>3042.3</v>
-      </c>
-      <c r="B21">
-        <v>3049</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>14.311642765902889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="1"/>
-        <v>3192.3</v>
-      </c>
-      <c r="B22">
-        <v>3199</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>14.514707900001667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="1"/>
-        <v>3342.3</v>
-      </c>
-      <c r="B23">
-        <v>3352</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>17.721834336782649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="1"/>
-        <v>3492.3</v>
-      </c>
-      <c r="B24">
-        <v>3501</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>16.923545703320997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="1"/>
-        <v>3642.3</v>
-      </c>
-      <c r="B25">
-        <v>3651</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>17.12661083742023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="1"/>
-        <v>3792.3</v>
-      </c>
-      <c r="B26">
-        <v>3801</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>17.329675971519009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="1"/>
-        <v>3942.3</v>
-      </c>
-      <c r="B27">
-        <v>3950</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>16.531387338057812</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="1"/>
-        <v>4092.3</v>
-      </c>
-      <c r="B28">
-        <v>4101</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>17.735806239717022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>4242.3</v>
-      </c>
-      <c r="B29">
-        <v>4250</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>16.937517606255824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>4392.3</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>-4388.8159945265497</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>4542.3</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>-4538.8159945265497</v>
+        <v>-2893</v>
       </c>
     </row>
   </sheetData>
@@ -3330,12 +2883,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3718,4 +3271,827 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143DB8D9-14DB-4F30-BBAF-FAF9547A9C28}">
+  <dimension ref="B1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>191</v>
+      </c>
+      <c r="C2">
+        <v>192.3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>342</v>
+      </c>
+      <c r="C3">
+        <v>342.3</v>
+      </c>
+      <c r="G3" s="3">
+        <f>1.00161384*0.999701489</f>
+        <v>1.0013148472510078</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>491</v>
+      </c>
+      <c r="C4">
+        <v>492.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>644</v>
+      </c>
+      <c r="C5">
+        <v>642.29999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>794</v>
+      </c>
+      <c r="C6">
+        <v>792.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>944</v>
+      </c>
+      <c r="C7">
+        <v>942.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1092.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1243</v>
+      </c>
+      <c r="C9">
+        <v>1242.3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1396</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1392.3</v>
+      </c>
+      <c r="D10">
+        <f>B10-2-C10</f>
+        <v>1.7000000000000455</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1545</v>
+      </c>
+      <c r="C11">
+        <v>1542.3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D28" si="0">B11-2-C11</f>
+        <v>0.70000000000004547</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1692.3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-1694.3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1845</v>
+      </c>
+      <c r="C13">
+        <v>1842.3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.70000000000004547</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1992</v>
+      </c>
+      <c r="C14">
+        <v>1992.3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-2.2999999999999545</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2144</v>
+      </c>
+      <c r="C15">
+        <v>2142.3000000000002</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.3000000000001819</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2294</v>
+      </c>
+      <c r="C16">
+        <v>2292.3000000000002</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.3000000000001819</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2442.3000000000002</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-2444.3000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2597</v>
+      </c>
+      <c r="C18">
+        <v>2592.3000000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2.6999999999998181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2740</v>
+      </c>
+      <c r="C19">
+        <v>2742.3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-4.3000000000001819</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2893</v>
+      </c>
+      <c r="C20">
+        <v>2892.3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000001819</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>3043</v>
+      </c>
+      <c r="C21">
+        <v>3042.3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000001819</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3193</v>
+      </c>
+      <c r="C22">
+        <v>3192.3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000001819</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>3342.3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-3344.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>3493</v>
+      </c>
+      <c r="C24">
+        <v>3492.3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000001819</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>3642.3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-3644.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>3792.3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-3794.3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3945</v>
+      </c>
+      <c r="C27">
+        <v>3942.3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.6999999999998181</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>4092.3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-4094.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>4242.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>4392.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>4542.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD08BF4-56CA-42E2-BCB7-3E2837B72C49}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>192.3</v>
+      </c>
+      <c r="B3">
+        <v>193</v>
+      </c>
+      <c r="C3">
+        <f>B3-A3</f>
+        <v>0.69999999999998863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>342.3</v>
+      </c>
+      <c r="B4">
+        <v>344</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C31" si="0">B4-A4</f>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="D4" s="6">
+        <f>AVERAGE(C6:C30)</f>
+        <v>2.9083333333332462</v>
+      </c>
+      <c r="E4">
+        <f>B4-$D$4-A4</f>
+        <v>-1.2083333333332575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>492.3</v>
+      </c>
+      <c r="B5">
+        <v>493</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E32" si="1">B5-$D$4-A5</f>
+        <v>-2.2083333333332575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>642.29999999999995</v>
+      </c>
+      <c r="B6">
+        <v>646</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000455</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.79166666666674246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>792.3</v>
+      </c>
+      <c r="B7">
+        <v>793</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.70000000000004547</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-2.2083333333332575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>942.3</v>
+      </c>
+      <c r="B8">
+        <v>943</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.70000000000004547</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-2.2083333333332575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1092.3</v>
+      </c>
+      <c r="B9">
+        <v>1096</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000455</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.79166666666674246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1242.3</v>
+      </c>
+      <c r="B10">
+        <v>1244</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000455</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-1.2083333333332575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1392.3</v>
+      </c>
+      <c r="B11">
+        <v>1397</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>4.7000000000000455</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.7916666666667425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1542.3</v>
+      </c>
+      <c r="B12">
+        <v>1546</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000455</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.79166666666674246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1692.3</v>
+      </c>
+      <c r="B13">
+        <v>1695</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000455</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-0.20833333333325754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1842.3</v>
+      </c>
+      <c r="B14">
+        <v>1845</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000455</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-0.20833333333325754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1992.3</v>
+      </c>
+      <c r="B15">
+        <v>1994</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000455</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-1.2083333333332575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2142.3000000000002</v>
+      </c>
+      <c r="B16">
+        <v>2146</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3.6999999999998181</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.79166666666651508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2292.3000000000002</v>
+      </c>
+      <c r="B17">
+        <v>2295</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2.6999999999998181</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-0.20833333333348492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2442.3000000000002</v>
+      </c>
+      <c r="B18">
+        <v>2446</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3.6999999999998181</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.79166666666651508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2592.3000000000002</v>
+      </c>
+      <c r="B19">
+        <v>2597</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4.6999999999998181</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.7916666666665151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2742.3</v>
+      </c>
+      <c r="B20">
+        <v>2744</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.6999999999998181</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-1.2083333333334849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2892.3</v>
+      </c>
+      <c r="B21">
+        <v>2896</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3.6999999999998181</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.79166666666651508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3042.3</v>
+      </c>
+      <c r="B22">
+        <v>3045</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2.6999999999998181</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-0.20833333333348492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3192.3</v>
+      </c>
+      <c r="B23">
+        <v>3196</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3.6999999999998181</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.79166666666651508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3342.3</v>
+      </c>
+      <c r="B24">
+        <v>3346</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>3.6999999999998181</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.79166666666651508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3492.3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-3495.2083333333335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3642.3</v>
+      </c>
+      <c r="B26">
+        <v>3646</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3.6999999999998181</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0.79166666666651508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3792.3</v>
+      </c>
+      <c r="B27">
+        <v>3794</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1.6999999999998181</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>-1.2083333333334849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3942.3</v>
+      </c>
+      <c r="B28">
+        <v>3945</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2.6999999999998181</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>-0.20833333333348492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4092.3</v>
+      </c>
+      <c r="B29">
+        <v>4096</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>3.6999999999998181</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.79166666666651508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4242.3</v>
+      </c>
+      <c r="B30">
+        <v>4244</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.6999999999998181</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>-1.2083333333330302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4392.3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-4392.3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>-4395.208333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4542.3</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>-4545.208333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
 </file>